--- a/data/trans_orig/SEX_BIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Edad-trans_orig.xlsx
@@ -741,12 +741,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>62370</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63168</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63368</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>69196</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1462,12 +1462,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>98437</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1540,12 +1540,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95000</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>138359</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>139603</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>147694</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2226,12 +2226,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>126720</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2471,12 +2471,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>114994</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2506,12 +2506,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>107997</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>133730</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>96022</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,12 +2962,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -3142,12 +3142,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3177,12 +3177,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>760907</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3192,12 +3192,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>99,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>699666</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3270,12 +3270,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>99,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>181383</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3876,12 +3876,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4071,12 +4071,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>312014</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4184,12 +4184,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>226511</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>321359</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>308869</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3079</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>403626</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>624085</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>320826</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>338494</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>450843</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>206828</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>233695</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>150520</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>2234036</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2101394</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6715,12 +6715,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6730,12 +6730,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6750,12 +6750,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>170239</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>171449</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6765,12 +6765,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -6828,12 +6828,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>168975</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -6843,12 +6843,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -6863,12 +6863,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6878,12 +6878,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7073,12 +7073,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>210609</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -7108,12 +7108,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>181251</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182454</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7186,12 +7186,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>247478</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -7451,12 +7451,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -7514,12 +7514,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>247708</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -7529,12 +7529,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -7549,12 +7549,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -7564,12 +7564,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -7744,12 +7744,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7759,12 +7759,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7779,12 +7779,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>279331</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>280502</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -7794,12 +7794,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -7857,12 +7857,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>295834</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -7872,12 +7872,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -7907,12 +7907,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -8087,12 +8087,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8102,12 +8102,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -8122,12 +8122,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>252932</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -8137,12 +8137,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>233486</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -8215,12 +8215,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -8250,12 +8250,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -8465,12 +8465,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>188239</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8480,12 +8480,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -8543,12 +8543,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>183429</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -8558,12 +8558,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -8593,12 +8593,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -8773,12 +8773,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -8788,12 +8788,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -8808,12 +8808,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>212695</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>213462</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -8823,12 +8823,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -8886,12 +8886,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>146853</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>147437</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -8901,12 +8901,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -8921,12 +8921,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -8936,12 +8936,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -9131,12 +9131,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>1567992</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1569034</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -9166,12 +9166,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -9229,12 +9229,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1463757</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1464739</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -9264,12 +9264,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -9279,12 +9279,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>60802</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63917</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>127175</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>122802</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>130638</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>138523</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>118762</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>116861</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>115057</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97202</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>87620</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>68366</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>113659</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>68324</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>758340</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>680686</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">

--- a/data/trans_orig/SEX_BIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en País Vasco</t>
+          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Andalucia</t>
+          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en C.Valenciana</t>
+          <t>Sexo biológico en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Barcelona</t>
+          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SEX_BIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Edad-trans_orig.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>57654</t>
+          <t>60207</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>67897</t>
+          <t>72035</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>49,87%</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>58304</t>
+          <t>72401</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>68547</t>
+          <t>84229</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>53,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>58,32%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69404</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>58112</t>
+          <t>63892</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>68679</t>
+          <t>74748</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>51,49%</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>64544</t>
+          <t>70423</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>75111</t>
+          <t>81279</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>55,99%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>92940</t>
+          <t>104969</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>105066</t>
+          <t>117638</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>51,65%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>54,14%</t>
+          <t>54,51%</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>89014</t>
+          <t>98173</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>101140</t>
+          <t>110842</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>48,35%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>52,11%</t>
+          <t>51,36%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>131065</t>
+          <t>144706</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>146169</t>
+          <t>161139</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>51,23%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>53,93%</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>132452</t>
+          <t>137650</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>147556</t>
+          <t>154083</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>48,77%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>52,96%</t>
+          <t>51,57%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152871</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>140283</t>
+          <t>145617</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>155308</t>
+          <t>160404</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>56,46%</t>
+          <t>56,67%</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>119766</t>
+          <t>122647</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>134791</t>
+          <t>137434</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>43,54%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>48,55%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116409</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>109344</t>
+          <t>110201</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>122057</t>
+          <t>123001</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>55,45%</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>101566</t>
+          <t>98803</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>114279</t>
+          <t>111603</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>50,32%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>127721</t>
+          <t>126398</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>140819</t>
+          <t>138458</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>59,75%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>57,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>61,12%</t>
+          <t>62,45%</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>89585</t>
+          <t>83241</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>102683</t>
+          <t>95301</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>40,25%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>42,99%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>744876</t>
+          <t>784994</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>777628</t>
+          <t>819258</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>51,28%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>53,22%</t>
+          <t>53,52%</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>683598</t>
+          <t>711503</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>716350</t>
+          <t>745767</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>48,72%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>154810</t>
+          <t>154293</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>218945</t>
+          <t>217456</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>52,06%</t>
+          <t>51,7%</t>
         </is>
       </c>
     </row>
@@ -3911,12 +3911,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>201644</t>
+          <t>203133</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>265779</t>
+          <t>266296</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>48,3%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>63,19%</t>
+          <t>63,31%</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>272782</t>
+          <t>269760</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>395428</t>
+          <t>401433</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>73,82%</t>
         </is>
       </c>
     </row>
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>148368</t>
+          <t>142363</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>271014</t>
+          <t>274036</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>50,39%</t>
         </is>
       </c>
     </row>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>299018</t>
+          <t>297450</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>346779</t>
+          <t>347157</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>47,21%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>54,81%</t>
         </is>
       </c>
     </row>
@@ -4597,12 +4597,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>286602</t>
+          <t>286224</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>334363</t>
+          <t>335931</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>45,19%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>52,79%</t>
+          <t>53,04%</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>205799</t>
+          <t>201854</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>539110</t>
+          <t>541265</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>52,45%</t>
         </is>
       </c>
     </row>
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>492856</t>
+          <t>490701</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>826167</t>
+          <t>830112</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>47,76%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>80,44%</t>
         </is>
       </c>
     </row>
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>299813</t>
+          <t>301512</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>343947</t>
+          <t>343407</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>51,87%</t>
         </is>
       </c>
     </row>
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>318091</t>
+          <t>318631</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>362225</t>
+          <t>360526</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>54,46%</t>
         </is>
       </c>
     </row>
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>352213</t>
+          <t>350136</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>577358</t>
+          <t>579622</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>52,99%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>87,72%</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>83369</t>
+          <t>81105</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>308514</t>
+          <t>310591</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>47,01%</t>
         </is>
       </c>
     </row>
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>219522</t>
+          <t>220180</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>251002</t>
+          <t>250387</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>56,97%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>64,94%</t>
+          <t>64,79%</t>
         </is>
       </c>
     </row>
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>135483</t>
+          <t>136098</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>166963</t>
+          <t>166305</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>43,2%</t>
+          <t>43,03%</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1886252</t>
+          <t>1890202</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>2502593</t>
+          <t>2505971</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>57,68%</t>
+          <t>57,75%</t>
         </is>
       </c>
     </row>
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1836389</t>
+          <t>1833011</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2452730</t>
+          <t>2448780</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>42,32%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>56,53%</t>
+          <t>56,44%</t>
         </is>
       </c>
     </row>
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>54475</t>
+          <t>53023</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>69713</t>
+          <t>68800</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>54,51%</t>
         </is>
       </c>
     </row>
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>56501</t>
+          <t>57414</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>71739</t>
+          <t>73191</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>57,99%</t>
         </is>
       </c>
     </row>
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>115671</t>
+          <t>116192</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>139857</t>
+          <t>139861</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>55,57%</t>
         </is>
       </c>
     </row>
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>111845</t>
+          <t>111841</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>136031</t>
+          <t>135510</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>44,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>53,84%</t>
         </is>
       </c>
     </row>
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>118897</t>
+          <t>119119</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>143744</t>
+          <t>145090</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>53,58%</t>
         </is>
       </c>
     </row>
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>127053</t>
+          <t>125707</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>151900</t>
+          <t>151678</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>56,09%</t>
+          <t>56,01%</t>
         </is>
       </c>
     </row>
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>107510</t>
+          <t>108589</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>131128</t>
+          <t>131783</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>55,56%</t>
         </is>
       </c>
     </row>
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>106055</t>
+          <t>105400</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>129673</t>
+          <t>128594</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>54,22%</t>
         </is>
       </c>
     </row>
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>104057</t>
+          <t>104912</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>126704</t>
+          <t>128145</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>59,92%</t>
         </is>
       </c>
     </row>
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>87170</t>
+          <t>85729</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>109817</t>
+          <t>108962</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>50,95%</t>
         </is>
       </c>
     </row>
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>78884</t>
+          <t>78715</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>97318</t>
+          <t>97387</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>61,85%</t>
         </is>
       </c>
     </row>
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>60144</t>
+          <t>60075</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>78578</t>
+          <t>78747</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>50,01%</t>
         </is>
       </c>
     </row>
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>104522</t>
+          <t>104577</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>124035</t>
+          <t>123336</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>67,64%</t>
+          <t>67,26%</t>
         </is>
       </c>
     </row>
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>59336</t>
+          <t>60035</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>78849</t>
+          <t>78794</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>42,97%</t>
         </is>
       </c>
     </row>
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>729716</t>
+          <t>731064</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>788315</t>
+          <t>789933</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>54,83%</t>
         </is>
       </c>
     </row>
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>652287</t>
+          <t>650669</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>710886</t>
+          <t>709538</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>49,35%</t>
+          <t>49,25%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SEX_BIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -766,12 +766,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -801,37 +801,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>60207</t>
+          <t>189116</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>72035</t>
+          <t>254509</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>55,22%</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -914,37 +914,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>72401</t>
+          <t>206411</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>84229</t>
+          <t>271804</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>52,34%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>58,97%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>144436</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>144436</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>144436</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1144,37 +1144,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>249</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>69404</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>63892</t>
+          <t>253917</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>74748</t>
+          <t>309900</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>56,82%</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1187,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1257,37 +1257,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>153</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261973</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>70423</t>
+          <t>235526</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>81279</t>
+          <t>291509</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>48,03%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>53,45%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>145171</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>145171</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>145171</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1487,37 +1487,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>493</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>104969</t>
+          <t>347148</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>117638</t>
+          <t>400878</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>51,65%</t>
+          <t>50,34%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>54,05%</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1530,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1600,37 +1600,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>313</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>98173</t>
+          <t>340825</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>110842</t>
+          <t>394555</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>53,2%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215811</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215811</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215811</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1830,37 +1830,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>660</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>144706</t>
+          <t>412538</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>161139</t>
+          <t>467120</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>51,23%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>48,43%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>53,99%</t>
         </is>
       </c>
     </row>
@@ -1873,12 +1873,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1943,37 +1943,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>390</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423942</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>137650</t>
+          <t>398114</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>154083</t>
+          <t>452696</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>48,77%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>52,32%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>568</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2173,37 +2173,37 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>568</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>152871</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>145617</t>
+          <t>338864</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>160404</t>
+          <t>384658</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>52,63%</t>
         </is>
       </c>
     </row>
@@ -2216,12 +2216,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2286,37 +2286,37 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>399</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>122647</t>
+          <t>346145</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>137434</t>
+          <t>391939</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>50,5%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>53,63%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>568</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>967</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>283051</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>283051</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>283051</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -2516,37 +2516,37 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>482</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>116409</t>
+          <t>270031</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>110201</t>
+          <t>253554</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>123001</t>
+          <t>288097</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>53,87%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>57,47%</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -2629,37 +2629,37 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>317</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>98803</t>
+          <t>213207</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>111603</t>
+          <t>247750</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>44,55%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>49,42%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>221804</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>221804</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>221804</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2859,37 +2859,37 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>443</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257806</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>126398</t>
+          <t>241521</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>138458</t>
+          <t>274763</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>59,75%</t>
+          <t>60,89%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>57,01%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>64,9%</t>
         </is>
       </c>
     </row>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2972,37 +2972,37 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>83241</t>
+          <t>148624</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>95301</t>
+          <t>181866</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>42,96%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>674</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221699</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221699</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221699</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>802373</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -3202,37 +3202,37 @@
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>802373</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>784994</t>
+          <t>2137212</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>819258</t>
+          <t>2274355</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>51,71%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>53,52%</t>
+          <t>53,28%</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3245,12 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>728388</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -3315,37 +3315,37 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>728388</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>711503</t>
+          <t>1994424</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>745767</t>
+          <t>2131567</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>49,93%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>728388</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>728388</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>728388</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>802373</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>802373</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>802373</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>4910</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1530761</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1530761</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1530761</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3753,12 +3753,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -3788,37 +3788,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61541</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>154293</t>
+          <t>53023</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>217456</t>
+          <t>68800</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>51,7%</t>
+          <t>54,51%</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -3901,37 +3901,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>203133</t>
+          <t>57414</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>266296</t>
+          <t>73191</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>57,99%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -4131,37 +4131,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>269760</t>
+          <t>116192</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>401433</t>
+          <t>139861</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>55,57%</t>
         </is>
       </c>
     </row>
@@ -4174,12 +4174,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -4244,37 +4244,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>272</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>142363</t>
+          <t>111841</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>274036</t>
+          <t>135510</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>44,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>53,84%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>558</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4439,12 +4439,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -4474,37 +4474,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>317</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>297450</t>
+          <t>119119</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>347157</t>
+          <t>145090</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>54,81%</t>
+          <t>53,58%</t>
         </is>
       </c>
     </row>
@@ -4517,12 +4517,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -4587,37 +4587,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>310768</t>
+          <t>139366</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>286224</t>
+          <t>125707</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>335931</t>
+          <t>151678</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>56,01%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>633</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4782,12 +4782,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -4817,37 +4817,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>201854</t>
+          <t>108589</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>541265</t>
+          <t>131783</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>50,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>55,56%</t>
         </is>
       </c>
     </row>
@@ -4860,12 +4860,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -4930,37 +4930,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>490701</t>
+          <t>105400</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>830112</t>
+          <t>128594</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>54,22%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -5160,37 +5160,37 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>276</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115861</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>301512</t>
+          <t>104912</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>343407</t>
+          <t>128145</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>54,17%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>45,54%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>59,92%</t>
         </is>
       </c>
     </row>
@@ -5203,12 +5203,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -5273,37 +5273,37 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>231</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>318631</t>
+          <t>85729</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>360526</t>
+          <t>108962</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>50,95%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5468,12 +5468,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -5503,37 +5503,37 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>350136</t>
+          <t>78715</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>579622</t>
+          <t>97387</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>61,85%</t>
         </is>
       </c>
     </row>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -5616,37 +5616,37 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>208085</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>81105</t>
+          <t>60075</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>310591</t>
+          <t>78747</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>50,01%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5811,12 +5811,12 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -5846,37 +5846,37 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>310</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>220180</t>
+          <t>104577</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>250387</t>
+          <t>123336</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>64,79%</t>
+          <t>67,26%</t>
         </is>
       </c>
     </row>
@@ -5889,12 +5889,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -5959,37 +5959,37 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>193</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>136098</t>
+          <t>60035</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>166305</t>
+          <t>78794</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>42,97%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -6189,37 +6189,37 @@
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1890202</t>
+          <t>731064</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>2505971</t>
+          <t>789933</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>51,52%</t>
+          <t>52,69%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>57,75%</t>
+          <t>54,83%</t>
         </is>
       </c>
     </row>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -6302,37 +6302,37 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1833011</t>
+          <t>650669</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2448780</t>
+          <t>709538</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>47,31%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>49,25%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9727,12 +9727,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -9762,37 +9762,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>350</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>61541</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>53023</t>
+          <t>60207</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>68800</t>
+          <t>72035</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>49,87%</t>
         </is>
       </c>
     </row>
@@ -9805,12 +9805,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -9875,37 +9875,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>380</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>57414</t>
+          <t>72401</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>73191</t>
+          <t>84229</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>53,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>57,99%</t>
+          <t>58,32%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10070,12 +10070,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -10105,37 +10105,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>374</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69404</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>116192</t>
+          <t>63892</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>139861</t>
+          <t>74748</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>51,49%</t>
         </is>
       </c>
     </row>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -10218,37 +10218,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>400</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>111841</t>
+          <t>70423</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>135510</t>
+          <t>81279</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>55,99%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10413,12 +10413,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -10448,37 +10448,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>586</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>119119</t>
+          <t>104969</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>145090</t>
+          <t>117638</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>48,53%</t>
+          <t>51,65%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>54,51%</t>
         </is>
       </c>
     </row>
@@ -10491,12 +10491,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -10561,37 +10561,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>571</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>139366</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>125707</t>
+          <t>98173</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>151678</t>
+          <t>110842</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>51,47%</t>
+          <t>48,35%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>56,01%</t>
+          <t>51,36%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -10791,37 +10791,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>108589</t>
+          <t>144706</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>131783</t>
+          <t>161139</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>51,23%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>53,93%</t>
         </is>
       </c>
     </row>
@@ -10834,12 +10834,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -10904,37 +10904,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>807</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>105400</t>
+          <t>137650</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>128594</t>
+          <t>154083</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>48,77%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>54,22%</t>
+          <t>51,57%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11099,12 +11099,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -11134,37 +11134,37 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>863</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>115861</t>
+          <t>152871</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>104912</t>
+          <t>145617</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>128145</t>
+          <t>160404</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>54,17%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>49,05%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>56,67%</t>
         </is>
       </c>
     </row>
@@ -11177,12 +11177,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -11247,37 +11247,37 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>735</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>85729</t>
+          <t>122647</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>108962</t>
+          <t>137434</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>48,55%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11442,12 +11442,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -11477,37 +11477,37 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>706</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116409</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>78715</t>
+          <t>110201</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>97387</t>
+          <t>123001</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>55,45%</t>
         </is>
       </c>
     </row>
@@ -11520,12 +11520,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -11590,37 +11590,37 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>650</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>60075</t>
+          <t>98803</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>78747</t>
+          <t>111603</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>50,32%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11785,12 +11785,12 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -11820,37 +11820,37 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>807</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>104577</t>
+          <t>126398</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>123336</t>
+          <t>138458</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>59,75%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>57,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>62,45%</t>
         </is>
       </c>
     </row>
@@ -11863,12 +11863,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -11933,37 +11933,37 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>555</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>60035</t>
+          <t>83241</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>78794</t>
+          <t>95301</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>40,25%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>42,99%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12128,12 +12128,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -12163,37 +12163,37 @@
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>731064</t>
+          <t>784994</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>789933</t>
+          <t>819258</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>51,28%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>53,52%</t>
         </is>
       </c>
     </row>
@@ -12206,12 +12206,12 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -12276,37 +12276,37 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>650669</t>
+          <t>711503</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>709538</t>
+          <t>745767</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>45,17%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>48,72%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
